--- a/Question_Sets/Role-specific skills/TikTok Marketing.xlsx
+++ b/Question_Sets/Role-specific skills/TikTok Marketing.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As the TikTok manager of a shoe company, your role involves determining the trends to invest resources in, aiming to enhance user engagement.Which of the following trends should you choose?', 'ques_type': 2, 'options': ['Trend A, which has generated a high number of likes, comments, and shares.', 'Trend B, which has seen a notable increase in popularity over the past week.', 'Trend C, which has a strong following among highly active young users.', 'Trend D, which samples a song that is popular among your target audience. '], 'score': 'Trend A, which has generated a high number of likes, comments, and shares.'}, {'title': 'A fashion retailer is due to launch a new clothing line for young adults and wants you to help reach a large audience and increase brand awareness. Traditional advertising methods have proven ineffective in reaching its target market.What action should you take?', 'ques_type': 2, 'options': ['Create a follow-for-follow challenge. ', 'Suggest it target a larger audience outside of its primary target group. ', 'Encourage users to Duet or Stitch the clothing retailer’s videos. ', 'Start following a large number of potential customers. '], 'score': 'Encourage users to Duet or Stitch the clothing retailer’s videos.'}, {'title': 'You are a TikTok specialist working for a new beauty brand that is new to the platform. You are planning the TikTok advertising campaign for the brand’s launch of its new makeup collection, which targets women ages 15 to 30.Which of the following actions should you prioritize?', 'ques_type': 2, 'options': ['Copy the TikTok advertising strategies used by established beauty brands.', 'Use paid advertising to show product videos to your target market.', 'Create promotional content that should increase the brand’s number of followers.', 'Launch a user-generated content challenge that features the new collection.'], 'score': 'Launch a user-generated content challenge that features the new collection.'}, {'title': 'You are a TikTok specialist responsible for a new sports brand’s community management. A new range of footwear was launched a few days ago, and negative comments about its quality have started appearing online today.Which action should you take?', 'ques_type': 2, 'options': ['Ignore the negative comments and continue with the campaign as planned.', 'Respond to the negative comments with empathetic and helpful messages.', "Delete the negative comments to prevent further damage to the brand's reputation.", 'Launch a campaign offering discounts on future purchases to win back unhappy customers.'], 'score': 'Respond to the negative comments with empathetic and helpful messages.'}]</t>
+    <t>questions = [
+    {
+        "title": "As the TikTok manager of a shoe company, your role involves determining the trends to invest resources in, aiming to enhance user engagement.Which of the following trends should you choose?",
+        "ques_type": 2,
+        "options": [
+            "Trend A, which has generated a high number of likes, comments, and shares.",
+            "Trend B, which has seen a notable increase in popularity over the past week.",
+            "Trend C, which has a strong following among highly active young users.",
+            "Trend D, which samples a song that is popular among your target audience. "
+        ],
+        "score": "Trend A, which has generated a high number of likes, comments, and shares."
+    },
+    {
+        "title": "A fashion retailer is due to launch a new clothing line for young adults and wants you to help reach a large audience and increase brand awareness. Traditional advertising methods have proven ineffective in reaching its target market.What action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Create a follow-for-follow challenge. ",
+            "Suggest it target a larger audience outside of its primary target group. ",
+            "Encourage users to Duet or Stitch the clothing retailer\u2019s videos. ",
+            "Start following a large number of potential customers. "
+        ],
+        "score": "Encourage users to Duet or Stitch the clothing retailer\u2019s videos."
+    },
+    {
+        "title": "You are a TikTok specialist working for a new beauty brand that is new to the platform. You are planning the TikTok advertising campaign for the brand\u2019s launch of its new makeup collection, which targets women ages 15 to 30.Which of the following actions should you prioritize?",
+        "ques_type": 2,
+        "options": [
+            "Copy the TikTok advertising strategies used by established beauty brands.",
+            "Use paid advertising to show product videos to your target market.",
+            "Create promotional content that should increase the brand\u2019s number of followers.",
+            "Launch a user-generated content challenge that features the new collection."
+        ],
+        "score": "Launch a user-generated content challenge that features the new collection."
+    },
+    {
+        "title": "You are a TikTok specialist responsible for a new sports brand\u2019s community management. A new range of footwear was launched a few days ago, and negative comments about its quality have started appearing online today.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Ignore the negative comments and continue with the campaign as planned.",
+            "Respond to the negative comments with empathetic and helpful messages.",
+            "Delete the negative comments to prevent further damage to the brand's reputation.",
+            "Launch a campaign offering discounts on future purchases to win back unhappy customers."
+        ],
+        "score": "Respond to the negative comments with empathetic and helpful messages."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
